--- a/Data/NHS/Initiating Agent's health from disease.xlsx
+++ b/Data/NHS/Initiating Agent's health from disease.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\LondonHealthSim\Data\NHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyesopshin/Github/LondonHealthSim/Data/NHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB7F66E-39B1-4FEB-93C1-76BD58FD8A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7D554C-2B5D-C344-AAE9-79A5B85B8811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,8 @@
     <t>In NetLogo</t>
   </si>
   <si>
-    <t>100-300</t>
+    <t xml:space="preserve"> 10 - 60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -124,7 +125,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -132,7 +133,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -140,7 +141,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -149,7 +150,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -158,7 +159,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -167,7 +168,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -175,7 +176,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -183,7 +184,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -191,7 +192,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -199,7 +200,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -208,7 +209,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -217,7 +218,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -225,7 +226,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -234,7 +235,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -242,7 +243,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -251,7 +252,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -260,7 +261,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -268,14 +269,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -706,8 +707,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,10 +1072,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1111,8 +1115,8 @@
         <v>829.16200000000003</v>
       </c>
       <c r="E2">
-        <f>D2/B2*300</f>
-        <v>7.0574306438625972E-2</v>
+        <f>ROUND(D2/B2*300,3)</f>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G2">
         <f>ROUND(300-E2,2)</f>
@@ -1134,8 +1138,8 @@
         <v>733.08699999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="1">D3/B3*300</f>
-        <v>6.1157925004087829E-2</v>
+        <f t="shared" ref="E3:E18" si="1">ROUND(D3/B3*300,3)</f>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="2">ROUND(300-E3,2)</f>
@@ -1158,9 +1162,9 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.11054702321054456</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0.111</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G4">
@@ -1184,14 +1188,14 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.18541902234550797</v>
+        <v>0.185</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>299.81</v>
+        <v>299.82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1210,7 +1214,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.2325283044980925</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.2326733787743554</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="G7">
         <f>ROUND(300-E7,2)</f>
@@ -1256,7 +1260,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.21716392326426501</v>
+        <v>0.217</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -1279,7 +1283,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.22369221503507392</v>
+        <v>0.224</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -1302,7 +1306,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.2943480577807937</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -1325,7 +1329,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.34216745714915558</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.40946940684103744</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -1371,7 +1375,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.53939510307480876</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -1394,7 +1398,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.85259526767576099</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -1417,7 +1421,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.95554999625586767</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -1440,7 +1444,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1.4133947997733023</v>
+        <v>1.413</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -1463,7 +1467,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>2.0585029285620942</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -1486,7 +1490,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>3.0336708476188647</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
